--- a/biology/Histoire de la zoologie et de la botanique/Hu_Xiansu/Hu_Xiansu.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hu_Xiansu/Hu_Xiansu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hu Xiansu, ou Hsen Hsu Hu, est un botaniste chinois, né le 24 mai 1894 à Nanchang et mort le 16 juillet 1968 à Pékin.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Diplômé de l'université de Berkeley en 1916, il retourne sept années en Chine enseigner à l'École normale supérieure de Nankin et y récolte aussi de nombreux échantillons, qu'il envoie à Charles Sprague Sargent. 
 Il retourne en 1923 aux États-Unis à Harvard travailler avec John Jack à l'Arboretum Arnold et où il rencontre Woon Young Chun, mais, face aux réactions hostiles de l'administration d'Harvard envers les étudiants asiatiques, il retourne en Chine en 1925. Il a dédié à John Jack le genre Sinojackia de la famille des Styracacées.
@@ -546,7 +560,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William j. Haas - Transplanting Botany to China: The Cross-Cultural Experience of Chen Huanyong -  Publication de l'arboretum Arnold, 1988, volume 48 n°2 - Article téléchargeable</t>
         </is>
